--- a/temp_data/魏华辉/番剧数据_魏华辉.xlsx
+++ b/temp_data/魏华辉/番剧数据_魏华辉.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856596CD-8D8E-4E54-BF76-CBB9CA66F319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>番剧名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,12 +159,114 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>如果提前了解了你们要面对的人生，不知道你们是否还会有勇气去面对，看见的和听到的，往往会让你们沮丧甚至受伤，世俗就是这样强大。强大到生不出改变他们的念头来。
+但是如果提前了解了你们的人生，知道青春也无非只有这些日子，不知道你们是否还会去在意那些世俗希望你们在意的东西。等你们长大，你们会因绿芽冒出土地而喜悦，会对初生的朝阳欢呼跳跃，也会给别人善意和温暖。但是也会在赞美别的生命的同时，常常，甚至永远忽略了自己的珍贵。
+愿你在被打击时，记起你的珍贵，抵抗恶意。愿你在迷茫时，坚信你的珍贵，爱你所爱，行你所行，听从你心，无问西东。
+多谢陪伴，青春永不完结。</t>
+  </si>
+  <si>
+    <t>青春期症候群——这是一种只发生在易敏感和不稳定的青春期的、不可思议的现象。例如，在梓川咲太面前出现的野生兔女郎。她的真实身份是高中高年级学生，明星活动休止的女演员樱岛麻衣。她迷人的身姿，不知为何在周围的人眼里看不出来。咲太决定解开这一谜题。在与麻衣一起度过的时间里，咲太知道了她秘密的想法……女主人公们一个接一个地出现在咲太的周围，她们都有着“青春期症候群”。在天空和大海都很闪耀的小镇上，开始了令人激动的故事。</t>
+  </si>
+  <si>
+    <t>校园 恋爱 治愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/play/ss25733</t>
+  </si>
+  <si>
+    <t>nerd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作细胞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一个人的身体中，约有60兆个细胞，每种细胞都有各自的任务……冒失又慌张新人红血球小姐，在她差点被肺炎链球菌袭击时遇到了冷酷的白血球先生。白血球不仅在她差点被肺炎链球菌袭击时，救了她一命，还顺道帮她带路到肺部……当遇到擦伤时，就需要可爱的血小板妹妹帮忙让伤口愈合……本番将细胞及病菌拟人化，以深入浅出的方式介绍人体细胞的功能！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个关于你自身的故事。你体内的故事——。人的细胞数量，约为37兆2千亿个。细胞们在名为身体的世界中，今天也精神满满、无休无眠地在工作着。运送着氧气的红细胞，与细菌战斗的白细胞……！这里，有着细胞们不为人知的故事。</t>
+  </si>
+  <si>
+    <t>科普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/play/ss24588/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此花亭奇谭 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉此花绮谭的精彩之处就在于它能把那些简单却又容易被忽略的哲理磨成粉，在加入感情之泉熬成汤，最后再经由剧中角色之手喂到你的嘴边。所以即便作为载具的器皿（故事的套路）看上去并没有什么特别之处，但碗内的料理（制作者的诚意）却是分量十足。
+如薄雾般飘散着的是名为百合的芳香、入口即化的是包着萌要素的棉花糖、世界观与作者的思想一并融在汤里，推荐的“用餐方式”是静下心来一小口一小口的细细品尝。毕竟比起“美味”这番给人更多的感受是“治愈与温馨”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍奉神明的狐娘们工作的温泉旅馆“此花亭”。“此花绮谭”便是来此花葶服务的新人服务员柚，和围绕着柚的伙伴们的暖人心怀的故事。服务员们想法只有一个。“不论真实身份是什么，不论是何等样人，客人就是神。”当然，现在在眼前的你也是……请接触柚她们的“招待”，来治愈疲惫的心吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/play/ss6425/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我，不是说了能力要平均值么！ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是project No.9的社长，又是无聊的周一。我看了看我的劳力士，又到了找理由扣经费的时间。打算去看看这个月的画师工作得怎么样。上周《平均值》的画师的插画一份都没派发走，还把超人高中生的插画给烧掉。本想把他调到非洲，为非洲动漫事业继续服务，但一想到，为了节约经费，他连女主角的胸都画得很小，在连电都没有的地方怎么迎合非洲部落的审美，就又起了富人之仁。突然想起了之前在B站看到两部番剧的评分，我就起了探究真理的想法。想看看，是不是B站的评分和动漫的经费成反比例关系。于是我当着两个画师的面，把《平均值》一半的经费，拨给了《超人高中生》。看着他愤愤不平的表情被多年摸爬滚打的经历磨成了淡然笑笑，还有他身旁人眼里对他的炫耀和不屑，我感觉特别好玩。唉，有钱人的周一，就是这么朴实无华～～且枯燥。</t>
+  </si>
+  <si>
+    <t>在剑与魔法的异世界舞台，描绘少女们友情与成长的平均值？冒险就此展开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/play/ss28544/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">某科学的一方通行 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《某科学的一方通行》（✘）
+《不科学的角色塑造》（✔）
+《某作死的自大反派》（✔）
+《某魔改的一方通行》（✔）
+《某科学的风光下葬》（✔)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于东京西部的巨大“学园都市”。 在总人口达230万人，其中约8成是学生的这座都市中，实施着超能力开发的特殊课程，学生们的能力被给予从“无能力Level 0”到“超能力Level 5”的六阶段评价。 在这样的学园都市君临能力者顶点的最强能力者·一方通行。他在仅有7人的“超能力者”当中也以远超其他人的能力位居第一。不断重复、脱离常轨的“实验”，以及在追求绝对力量的最后品尝到的败北。在那之后，随着与一位少女——最后之作的相遇，他的命运产生了巨大变化。 最强而最凶的“恶”——一方通行， 扫平学园都市的“黑暗”!!</t>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/play/ss28002/</t>
+  </si>
+  <si>
+    <t>青春猪头少年不会梦到兔女郎学姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +298,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -219,10 +330,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -236,9 +348,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,22 +631,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -544,7 +660,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -556,7 +672,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -568,7 +684,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -580,7 +696,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -592,7 +708,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,72 +740,165 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:10" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2333</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1522</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="114" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>285</v>
+      </c>
+      <c r="H8" s="1">
+        <v>251</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>335</v>
+      </c>
+      <c r="H9" s="1">
+        <v>334</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
+        <v>360</v>
+      </c>
+      <c r="H10" s="1">
+        <v>248</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>555</v>
+      </c>
+      <c r="H11" s="1">
+        <v>520</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{25F3E208-DEFE-4F5B-BA93-AE8037B75A00}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>